--- a/R_output_files/Tables/df_glycan_canonicalized.xlsx
+++ b/R_output_files/Tables/df_glycan_canonicalized.xlsx
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-?)Gal(?1-?)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[FucGal(?1-?)GlcNAc(b1-3)]Gal(b1-3)[Fuc(a1-2)Gal(?1-?)GlcNAc(b1-6)]GalNAc</t>
+          <t>Neu5Ac(a2-?)Gal(?1-?)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Fuc(a1-?)Gal(?1-?)GlcNAc(b1-3)]Gal(b1-3)[Fuc(a1-2)Gal(?1-?)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>FucGal(-)GlcNAc(β1-3)[Neu5Ac(-)Gal(-)GlcNAc(β1-3)Gal(β1-4)GlcNAc(β1-6)]Gal(β1-3)[Fuc(α1-2)Gal(-)GlcNAc(β1-6)]GalNAcol</t>
+          <t>Fuc(-)Gal(-)GlcNAc(β1-3)[Neu5Ac(-)Gal(-)GlcNAc(β1-3)Gal(β1-4)GlcNAc(β1-6)]Gal(β1-3)[Fuc(α1-2)Gal(-)GlcNAc(β1-6)]GalNAcol</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
